--- a/8/8.xlsx
+++ b/8/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Universidad\Base De Datos I\Ejercicios\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40630B7C-4D55-425B-AF52-669C484B94FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2E103-1A77-43D8-B0B5-E05C3BAB2400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="L8:Z20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -809,7 +809,7 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" customWidth="1"/>
